--- a/letters.xlsx
+++ b/letters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -167,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -266,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -561,7 +561,7 @@
   <dimension ref="B1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B3" sqref="B3:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,8 +636,8 @@
         <v>8.5072231139646899</v>
       </c>
       <c r="J3" s="3">
-        <f>C3+D3+E3*5+F3*10+G3+H3*2+I3*3</f>
-        <v>903.31892411896411</v>
+        <f>C3+D3+E3+F3*10+G3+H3*2+I3*3</f>
+        <v>826.63892411896404</v>
       </c>
       <c r="L3" s="2">
         <v>1.59</v>
@@ -668,7 +668,7 @@
         <v>6.0995184590690199</v>
       </c>
       <c r="J4" s="3">
-        <f>C4+D4+E4*5+F4*10+G4+H4*2+I4*3</f>
+        <f>C4+D4+E4+F4*10+G4+H4*2+I4*3</f>
         <v>301.32895028166564</v>
       </c>
       <c r="L4" s="2"/>
@@ -698,8 +698,8 @@
         <v>18.726591760299623</v>
       </c>
       <c r="J5" s="3">
-        <f>C5+D5+E5*5+F5*10+G5+H5*2+I5*3</f>
-        <v>165.24212527550105</v>
+        <f>C5+D5+E5+F5*10+G5+H5*2+I5*3</f>
+        <v>130.68212527550105</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
@@ -726,7 +726,7 @@
         <v>18.726591760299623</v>
       </c>
       <c r="J6" s="3">
-        <f>C6+D6+E6*5+F6*10+G6+H6*2+I6*3</f>
+        <f>C6+D6+E6+F6*10+G6+H6*2+I6*3</f>
         <v>123.92073037104245</v>
       </c>
       <c r="L6" s="2">
@@ -738,28 +738,26 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>6.7489999999999997</v>
+        <v>6.0940000000000003</v>
       </c>
       <c r="D7" s="4">
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="E7" s="3">
-        <v>7.86</v>
-      </c>
+        <v>7.2320000000000002</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
-        <v>13.407643312101911</v>
+        <v>15.796178343949045</v>
       </c>
       <c r="I7" s="5">
-        <v>14.606741573033707</v>
+        <v>18.726591760299623</v>
       </c>
       <c r="J7" s="3">
-        <f>C7+D7+E7*5+F7*10+G7+H7*2+I7*3</f>
-        <v>119.04951134330494</v>
+        <f>C7+D7+E7+F7*10+G7+H7*2+I7*3</f>
+        <v>101.09813196879696</v>
       </c>
       <c r="L7" s="2">
         <v>3.5</v>
@@ -770,54 +768,56 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4">
-        <v>6.327</v>
+        <v>6.7489999999999997</v>
       </c>
       <c r="D8" s="4">
-        <v>7.7549999999999999</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>14.35</v>
+        <v>7.86</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="5">
-        <v>25.423728813559322</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5">
-        <v>3.4872611464968153</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>13.407643312101911</v>
+      </c>
+      <c r="I8" s="5">
+        <v>14.606741573033707</v>
+      </c>
       <c r="J8" s="3">
-        <f>C8+D8+E8*5+F8*10+G8+H8*2+I8*3</f>
-        <v>118.23025110655294</v>
+        <f>C8+D8+E8+F8*10+G8+H8*2+I8*3</f>
+        <v>87.609511343304945</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>6.0940000000000003</v>
+        <v>6.327</v>
       </c>
       <c r="D9" s="4">
-        <v>7.2320000000000002</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14.35</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>25.423728813559322</v>
+      </c>
       <c r="H9" s="5">
-        <v>15.796178343949045</v>
-      </c>
-      <c r="I9" s="5">
-        <v>18.726591760299623</v>
-      </c>
+        <v>3.4872611464968153</v>
+      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="3">
-        <f>C9+D9+E9*5+F9*10+G9+H9*2+I9*3</f>
-        <v>101.09813196879696</v>
+        <f>C9+D9+E9+F9*10+G9+H9*2+I9*3</f>
+        <v>60.830251106552957</v>
       </c>
       <c r="L9" s="2">
         <v>1.1399999999999999</v>
@@ -848,8 +848,8 @@
         <v>8.5072231139646863</v>
       </c>
       <c r="J10" s="3">
-        <f>C10+D10+E10*5+F10*10+G10+H10*2+I10*3</f>
-        <v>87.639255329155219</v>
+        <f>C10+D10+E10+F10*10+G10+H10*2+I10*3</f>
+        <v>50.719255329155203</v>
       </c>
       <c r="L10" s="2">
         <v>3.5</v>
@@ -880,8 +880,8 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="3">
-        <f>C11+D11+E11*5+F11*10+G11+H11*2+I11*3</f>
-        <v>61.519143150167338</v>
+        <f>C11+D11+E11+F11*10+G11+H11*2+I11*3</f>
+        <v>42.839143150167338</v>
       </c>
       <c r="L11" s="2">
         <v>1.1399999999999999</v>
@@ -910,58 +910,60 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="3">
-        <f>C12+D12+E12*5+F12*10+G12+H12*2+I12*3</f>
-        <v>58.40464968152866</v>
+        <f>C12+D12+E12+F12*10+G12+H12*2+I12*3</f>
+        <v>30.684649681528661</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4">
-        <v>4.0250000000000004</v>
+        <v>2.0150000000000001</v>
       </c>
       <c r="D13" s="4">
-        <v>2.7050000000000001</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.5599999999999996</v>
-      </c>
+        <v>1.95</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="5">
-        <v>11.864406779661017</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5">
+        <v>1.6719745222929938</v>
+      </c>
+      <c r="I13" s="5">
+        <v>6.0995184590690199</v>
+      </c>
       <c r="J13" s="3">
-        <f>C13+D13+E13*5+F13*10+G13+H13*2+I13*3</f>
-        <v>41.394406779661011</v>
+        <f>C13+D13+E13+F13*10+G13+H13*2+I13*3</f>
+        <v>25.607504421793045</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
-        <v>1.974</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.974</v>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2.7050000000000001</v>
       </c>
       <c r="E14" s="3">
-        <v>7.3</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="5">
+        <v>11.864406779661017</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="3">
-        <f>C14+D14+E14*5+F14*10+G14+H14*2+I14*3</f>
-        <v>40.448</v>
+        <f>C14+D14+E14+F14*10+G14+H14*2+I14*3</f>
+        <v>23.154406779661016</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="3"/>
@@ -986,34 +988,32 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="3">
-        <f>C15+D15+E15*5+F15*10+G15+H15*2+I15*3</f>
-        <v>38.271406779661014</v>
+        <f>C15+D15+E15+F15*10+G15+H15*2+I15*3</f>
+        <v>21.951406779661017</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
-        <v>2.0150000000000001</v>
+        <v>2.4060000000000001</v>
       </c>
       <c r="D16" s="4">
-        <v>1.95</v>
+        <v>4.383</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5">
-        <v>1.6719745222929938</v>
-      </c>
-      <c r="I16" s="5">
-        <v>6.0995184590690199</v>
-      </c>
+      <c r="G16" s="5">
+        <v>8.4745762711864412</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="3">
-        <f>C16+D16+E16*5+F16*10+G16+H16*2+I16*3</f>
-        <v>25.607504421793045</v>
+        <f>C16+D16+E16+F16*10+G16+H16*2+I16*3</f>
+        <v>15.263576271186441</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>44</v>
@@ -1024,24 +1024,24 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
-        <v>2.4060000000000001</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4.383</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>1.974</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.974</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7.3</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="5">
-        <v>8.4745762711864412</v>
-      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="3">
-        <f>C17+D17+E17*5+F17*10+G17+H17*2+I17*3</f>
-        <v>15.263576271186441</v>
+        <f>C17+D17+E17+F17*10+G17+H17*2+I17*3</f>
+        <v>11.247999999999999</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="3" t="s">
@@ -1064,7 +1064,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3">
-        <f>C18+D18+E18*5+F18*10+G18+H18*2+I18*3</f>
+        <f>C18+D18+E18+F18*10+G18+H18*2+I18*3</f>
         <v>9.1129999999999995</v>
       </c>
       <c r="L18" s="2"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3">
-        <f>C19+D19+E19*5+F19*10+G19+H19*2+I19*3</f>
+        <f>C19+D19+E19+F19*10+G19+H19*2+I19*3</f>
         <v>8.3214331210191084</v>
       </c>
       <c r="L19" s="2"/>
@@ -1110,7 +1110,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
-        <f>C20+D20+E20*5+F20*10+G20+H20*2+I20*3</f>
+        <f>C20+D20+E20+F20*10+G20+H20*2+I20*3</f>
         <v>6.2930000000000001</v>
       </c>
       <c r="L20" s="2"/>
@@ -1134,7 +1134,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3">
-        <f>C21+D21+E21*5+F21*10+G21+H21*2+I21*3</f>
+        <f>C21+D21+E21+F21*10+G21+H21*2+I21*3</f>
         <v>6.194</v>
       </c>
       <c r="L21" s="2"/>
@@ -1158,7 +1158,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3">
-        <f>C22+D22+E22*5+F22*10+G22+H22*2+I22*3</f>
+        <f>C22+D22+E22+F22*10+G22+H22*2+I22*3</f>
         <v>4.4740000000000002</v>
       </c>
       <c r="L22" s="2">
@@ -1184,7 +1184,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3">
-        <f>C23+D23+E23*5+F23*10+G23+H23*2+I23*3</f>
+        <f>C23+D23+E23+F23*10+G23+H23*2+I23*3</f>
         <v>1.627</v>
       </c>
       <c r="L23" s="2"/>
@@ -1208,7 +1208,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3">
-        <f>C24+D24+E24*5+F24*10+G24+H24*2+I24*3</f>
+        <f>C24+D24+E24+F24*10+G24+H24*2+I24*3</f>
         <v>1.3620000000000001</v>
       </c>
       <c r="K24" s="3"/>
@@ -1230,7 +1230,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3">
-        <f>C25+D25+E25*5+F25*10+G25+H25*2+I25*3</f>
+        <f>C25+D25+E25+F25*10+G25+H25*2+I25*3</f>
         <v>0.75</v>
       </c>
       <c r="K25" s="3"/>
@@ -1252,7 +1252,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
-        <f>C26+D26+E26*5+F26*10+G26+H26*2+I26*3</f>
+        <f>C26+D26+E26+F26*10+G26+H26*2+I26*3</f>
         <v>0.26800000000000002</v>
       </c>
       <c r="K26" s="3"/>
@@ -1274,7 +1274,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3">
-        <f>C27+D27+E27*5+F27*10+G27+H27*2+I27*3</f>
+        <f>C27+D27+E27+F27*10+G27+H27*2+I27*3</f>
         <v>0.16699999999999998</v>
       </c>
       <c r="K27" s="3"/>
@@ -1296,7 +1296,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3">
-        <f>C28+D28+E28*5+F28*10+G28+H28*2+I28*3</f>
+        <f>C28+D28+E28+F28*10+G28+H28*2+I28*3</f>
         <v>0.108</v>
       </c>
       <c r="K28" s="2"/>

--- a/letters.xlsx
+++ b/letters.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="List2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
   <si>
     <t>A</t>
   </si>
@@ -160,6 +161,120 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>celkové skóre</t>
+  </si>
+  <si>
+    <t>trojice [%]</t>
+  </si>
+  <si>
+    <t>dvojice [%]</t>
+  </si>
+  <si>
+    <t>dvojice stejných písmen [%]</t>
+  </si>
+  <si>
+    <t>jednopísmenová slova [%]</t>
+  </si>
+  <si>
+    <t>na konci slov [%]</t>
+  </si>
+  <si>
+    <t>na začátku slov [%]</t>
+  </si>
+  <si>
+    <t>v celém textu [%]</t>
+  </si>
+  <si>
+    <t>písmeno</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Klíč</t>
+  </si>
+  <si>
+    <t>Uhádnutý klíč</t>
+  </si>
+  <si>
+    <t>1.</t>
   </si>
 </sst>
 </file>
@@ -187,15 +302,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -248,11 +405,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,6 +593,88 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,21 +957,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M52"/>
+  <dimension ref="B1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J28"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="29.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="34.28515625" customWidth="1"/>
@@ -636,7 +1035,7 @@
         <v>8.5072231139646899</v>
       </c>
       <c r="J3" s="3">
-        <f>C3+D3+E3+F3*10+G3+H3*2+I3*3</f>
+        <f t="shared" ref="J3:J28" si="0">C3+D3+E3+F3*10+G3+H3*2+I3*3</f>
         <v>826.63892411896404</v>
       </c>
       <c r="L3" s="2">
@@ -668,7 +1067,7 @@
         <v>6.0995184590690199</v>
       </c>
       <c r="J4" s="3">
-        <f>C4+D4+E4+F4*10+G4+H4*2+I4*3</f>
+        <f t="shared" si="0"/>
         <v>301.32895028166564</v>
       </c>
       <c r="L4" s="2"/>
@@ -698,7 +1097,7 @@
         <v>18.726591760299623</v>
       </c>
       <c r="J5" s="3">
-        <f>C5+D5+E5+F5*10+G5+H5*2+I5*3</f>
+        <f t="shared" si="0"/>
         <v>130.68212527550105</v>
       </c>
       <c r="L5" s="2"/>
@@ -726,7 +1125,7 @@
         <v>18.726591760299623</v>
       </c>
       <c r="J6" s="3">
-        <f>C6+D6+E6+F6*10+G6+H6*2+I6*3</f>
+        <f t="shared" si="0"/>
         <v>123.92073037104245</v>
       </c>
       <c r="L6" s="2">
@@ -756,7 +1155,7 @@
         <v>18.726591760299623</v>
       </c>
       <c r="J7" s="3">
-        <f>C7+D7+E7+F7*10+G7+H7*2+I7*3</f>
+        <f t="shared" si="0"/>
         <v>101.09813196879696</v>
       </c>
       <c r="L7" s="2">
@@ -788,7 +1187,7 @@
         <v>14.606741573033707</v>
       </c>
       <c r="J8" s="3">
-        <f>C8+D8+E8+F8*10+G8+H8*2+I8*3</f>
+        <f t="shared" si="0"/>
         <v>87.609511343304945</v>
       </c>
       <c r="L8" s="2"/>
@@ -816,7 +1215,7 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="3">
-        <f>C9+D9+E9+F9*10+G9+H9*2+I9*3</f>
+        <f t="shared" si="0"/>
         <v>60.830251106552957</v>
       </c>
       <c r="L9" s="2">
@@ -848,7 +1247,7 @@
         <v>8.5072231139646863</v>
       </c>
       <c r="J10" s="3">
-        <f>C10+D10+E10+F10*10+G10+H10*2+I10*3</f>
+        <f t="shared" si="0"/>
         <v>50.719255329155203</v>
       </c>
       <c r="L10" s="2">
@@ -880,7 +1279,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="3">
-        <f>C11+D11+E11+F11*10+G11+H11*2+I11*3</f>
+        <f t="shared" si="0"/>
         <v>42.839143150167338</v>
       </c>
       <c r="L11" s="2">
@@ -910,7 +1309,7 @@
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="3">
-        <f>C12+D12+E12+F12*10+G12+H12*2+I12*3</f>
+        <f t="shared" si="0"/>
         <v>30.684649681528661</v>
       </c>
       <c r="L12" s="2"/>
@@ -936,7 +1335,7 @@
         <v>6.0995184590690199</v>
       </c>
       <c r="J13" s="3">
-        <f>C13+D13+E13+F13*10+G13+H13*2+I13*3</f>
+        <f t="shared" si="0"/>
         <v>25.607504421793045</v>
       </c>
       <c r="L13" s="2"/>
@@ -962,7 +1361,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="3">
-        <f>C14+D14+E14+F14*10+G14+H14*2+I14*3</f>
+        <f t="shared" si="0"/>
         <v>23.154406779661016</v>
       </c>
       <c r="L14" s="2"/>
@@ -988,7 +1387,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="3">
-        <f>C15+D15+E15+F15*10+G15+H15*2+I15*3</f>
+        <f t="shared" si="0"/>
         <v>21.951406779661017</v>
       </c>
       <c r="L15" s="2"/>
@@ -1012,7 +1411,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="3">
-        <f>C16+D16+E16+F16*10+G16+H16*2+I16*3</f>
+        <f t="shared" si="0"/>
         <v>15.263576271186441</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -1040,7 +1439,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="3">
-        <f>C17+D17+E17+F17*10+G17+H17*2+I17*3</f>
+        <f t="shared" si="0"/>
         <v>11.247999999999999</v>
       </c>
       <c r="L17" s="2"/>
@@ -1064,7 +1463,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3">
-        <f>C18+D18+E18+F18*10+G18+H18*2+I18*3</f>
+        <f t="shared" si="0"/>
         <v>9.1129999999999995</v>
       </c>
       <c r="L18" s="2"/>
@@ -1088,7 +1487,7 @@
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3">
-        <f>C19+D19+E19+F19*10+G19+H19*2+I19*3</f>
+        <f t="shared" si="0"/>
         <v>8.3214331210191084</v>
       </c>
       <c r="L19" s="2"/>
@@ -1110,7 +1509,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
-        <f>C20+D20+E20+F20*10+G20+H20*2+I20*3</f>
+        <f t="shared" si="0"/>
         <v>6.2930000000000001</v>
       </c>
       <c r="L20" s="2"/>
@@ -1134,7 +1533,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3">
-        <f>C21+D21+E21+F21*10+G21+H21*2+I21*3</f>
+        <f t="shared" si="0"/>
         <v>6.194</v>
       </c>
       <c r="L21" s="2"/>
@@ -1158,7 +1557,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3">
-        <f>C22+D22+E22+F22*10+G22+H22*2+I22*3</f>
+        <f t="shared" si="0"/>
         <v>4.4740000000000002</v>
       </c>
       <c r="L22" s="2">
@@ -1184,7 +1583,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3">
-        <f>C23+D23+E23+F23*10+G23+H23*2+I23*3</f>
+        <f t="shared" si="0"/>
         <v>1.627</v>
       </c>
       <c r="L23" s="2"/>
@@ -1208,7 +1607,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3">
-        <f>C24+D24+E24+F24*10+G24+H24*2+I24*3</f>
+        <f t="shared" si="0"/>
         <v>1.3620000000000001</v>
       </c>
       <c r="K24" s="3"/>
@@ -1230,7 +1629,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3">
-        <f>C25+D25+E25+F25*10+G25+H25*2+I25*3</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="K25" s="3"/>
@@ -1252,7 +1651,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3">
-        <f>C26+D26+E26+F26*10+G26+H26*2+I26*3</f>
+        <f t="shared" si="0"/>
         <v>0.26800000000000002</v>
       </c>
       <c r="K26" s="3"/>
@@ -1274,7 +1673,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3">
-        <f>C27+D27+E27+F27*10+G27+H27*2+I27*3</f>
+        <f t="shared" si="0"/>
         <v>0.16699999999999998</v>
       </c>
       <c r="K27" s="3"/>
@@ -1296,7 +1695,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3">
-        <f>C28+D28+E28+F28*10+G28+H28*2+I28*3</f>
+        <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
       <c r="K28" s="2"/>
@@ -1336,21 +1735,21 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G43" si="0">100*F34/$F$44</f>
+        <f t="shared" ref="G34:G43" si="1">100*F34/$F$44</f>
         <v>16.949152542372882</v>
       </c>
       <c r="H34" s="3">
         <v>5.6</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I49" si="1">H34*100/$H$52</f>
+        <f t="shared" ref="I34:I49" si="2">H34*100/$H$52</f>
         <v>8.9171974522292992</v>
       </c>
       <c r="K34" s="3">
         <v>1.1399999999999999</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L47" si="2">100*K34/$K$49</f>
+        <f t="shared" ref="L34:L47" si="3">100*K34/$K$49</f>
         <v>6.0995184590690199</v>
       </c>
     </row>
@@ -1359,61 +1758,61 @@
         <v>15</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.423728813559322</v>
       </c>
       <c r="H35" s="3">
         <v>7.51</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.95859872611465</v>
       </c>
       <c r="K35" s="3">
         <v>3.5</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.726591760299623</v>
       </c>
     </row>
     <row r="36" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F36" s="3"/>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="3">
         <v>11.33</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.041401273885352</v>
       </c>
       <c r="K36" s="3">
         <v>3.5</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.726591760299623</v>
       </c>
     </row>
     <row r="37" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F37" s="3"/>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H37" s="3">
         <v>2.19</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4872611464968153</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1422,61 +1821,61 @@
         <v>5</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4745762711864412</v>
       </c>
       <c r="H38" s="3">
         <v>9.92</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.796178343949045</v>
       </c>
       <c r="K38" s="3">
         <v>3.5</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.726591760299623</v>
       </c>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F39" s="3"/>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="3">
         <v>8.42</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.407643312101911</v>
       </c>
       <c r="K39" s="3">
         <v>2.73</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.606741573033707</v>
       </c>
     </row>
     <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F40" s="3"/>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="3">
         <v>5</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9617834394904463</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1485,21 +1884,21 @@
         <v>7</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.864406779661017</v>
       </c>
       <c r="H41" s="3">
         <v>2.84</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5222929936305736</v>
       </c>
       <c r="K41" s="3">
         <v>1.59</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5072231139646863</v>
       </c>
     </row>
@@ -1508,19 +1907,19 @@
         <v>7</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.864406779661017</v>
       </c>
       <c r="H42" s="3">
         <v>5.0599999999999996</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0573248407643305</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1529,17 +1928,17 @@
         <v>5</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4745762711864412</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1550,36 +1949,36 @@
       </c>
       <c r="H44" s="3"/>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="6:12" x14ac:dyDescent="0.25">
       <c r="H45" s="3"/>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="6:12" x14ac:dyDescent="0.25">
       <c r="H46" s="3"/>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1588,30 +1987,30 @@
         <v>1.05</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6719745222929938</v>
       </c>
       <c r="K47" s="3">
         <v>1.1399999999999999</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0995184590690199</v>
       </c>
     </row>
     <row r="48" spans="6:12" x14ac:dyDescent="0.25">
       <c r="H48" s="3"/>
       <c r="I48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H49" s="3">
         <v>1.28</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0382165605095541</v>
       </c>
       <c r="K49">
@@ -1619,23 +2018,1441 @@
         <v>18.690000000000001</v>
       </c>
     </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H52" s="3">
         <f>SUM(H33:H49)</f>
         <v>62.8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57">
+        <f>26-2-4-5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="24"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="16">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="D59" s="16">
+        <v>15.5</v>
+      </c>
+      <c r="E59" s="16">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="F59" s="16">
+        <v>75</v>
+      </c>
+      <c r="G59" s="16">
+        <v>0</v>
+      </c>
+      <c r="H59" s="16">
+        <v>4.1401273885350323</v>
+      </c>
+      <c r="I59" s="16">
+        <v>8.5072231139646899</v>
+      </c>
+      <c r="J59" s="16">
+        <f t="shared" ref="J59:J84" si="4">C59+D59+E59+F59*10+G59+H59*2+I59*3</f>
+        <v>826.63892411896404</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="10">
+        <v>6.9660000000000002</v>
+      </c>
+      <c r="D60" s="10">
+        <v>8.23</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10">
+        <v>25</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>8.9171974522292992</v>
+      </c>
+      <c r="I60" s="10">
+        <v>6.0995184590690199</v>
+      </c>
+      <c r="J60" s="10">
+        <f t="shared" si="4"/>
+        <v>301.32895028166564</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="16">
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="D61" s="16">
+        <v>15.94</v>
+      </c>
+      <c r="E61" s="16">
+        <v>8.64</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0</v>
+      </c>
+      <c r="G61" s="16">
+        <v>16.949152542372882</v>
+      </c>
+      <c r="H61" s="16">
+        <v>11.95859872611465</v>
+      </c>
+      <c r="I61" s="16">
+        <v>18.726591760299623</v>
+      </c>
+      <c r="J61" s="16">
+        <f t="shared" si="4"/>
+        <v>130.68212527550105</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="10">
+        <v>12.702</v>
+      </c>
+      <c r="D62" s="10">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
+      <c r="F62" s="10">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
+        <v>16.949152542372882</v>
+      </c>
+      <c r="H62" s="10">
+        <v>18.041401273885352</v>
+      </c>
+      <c r="I62" s="10">
+        <v>18.726591760299623</v>
+      </c>
+      <c r="J62" s="10">
+        <f t="shared" si="4"/>
+        <v>123.92073037104245</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="16">
+        <v>6.0940000000000003</v>
+      </c>
+      <c r="D63" s="16">
+        <v>7.2320000000000002</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16">
+        <v>0</v>
+      </c>
+      <c r="G63" s="16">
+        <v>0</v>
+      </c>
+      <c r="H63" s="16">
+        <v>15.796178343949045</v>
+      </c>
+      <c r="I63" s="16">
+        <v>18.726591760299623</v>
+      </c>
+      <c r="J63" s="16">
+        <f t="shared" si="4"/>
+        <v>101.09813196879696</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="14">
+        <v>6.7489999999999997</v>
+      </c>
+      <c r="D64" s="14">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="E64" s="14">
+        <v>7.86</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>13.407643312101911</v>
+      </c>
+      <c r="I64" s="14">
+        <v>14.606741573033707</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="4"/>
+        <v>87.609511343304945</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="16">
+        <v>6.327</v>
+      </c>
+      <c r="D65" s="16">
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="E65" s="16">
+        <v>14.35</v>
+      </c>
+      <c r="F65" s="16">
+        <v>0</v>
+      </c>
+      <c r="G65" s="16">
+        <v>25.4237288135593</v>
+      </c>
+      <c r="H65" s="16">
+        <v>3.4872611464968153</v>
+      </c>
+      <c r="I65" s="16">
+        <v>0</v>
+      </c>
+      <c r="J65" s="16">
+        <f t="shared" si="4"/>
+        <v>60.830251106552936</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="12">
+        <v>4.2530000000000001</v>
+      </c>
+      <c r="D66" s="12">
+        <v>2.67</v>
+      </c>
+      <c r="E66" s="12">
+        <v>9.23</v>
+      </c>
+      <c r="F66" s="12">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12">
+        <v>4.5222929936305736</v>
+      </c>
+      <c r="I66" s="12">
+        <v>8.5072231139646899</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="4"/>
+        <v>50.719255329155217</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="16">
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="D67" s="16">
+        <v>6.2640000000000002</v>
+      </c>
+      <c r="E67" s="16">
+        <v>4.67</v>
+      </c>
+      <c r="F67" s="16">
+        <v>0</v>
+      </c>
+      <c r="G67" s="16">
+        <v>8.4745762711864412</v>
+      </c>
+      <c r="H67" s="16">
+        <v>7.9617834394904463</v>
+      </c>
+      <c r="I67" s="16">
+        <v>0</v>
+      </c>
+      <c r="J67" s="16">
+        <f t="shared" si="4"/>
+        <v>42.839143150167338</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="10">
+        <v>5.9870000000000001</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1.653</v>
+      </c>
+      <c r="E68" s="10">
+        <v>6.93</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>8.0573248407643305</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0</v>
+      </c>
+      <c r="J68" s="10">
+        <f t="shared" si="4"/>
+        <v>30.684649681528661</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="16">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="D69" s="16">
+        <v>1.95</v>
+      </c>
+      <c r="E69" s="16">
+        <v>0</v>
+      </c>
+      <c r="F69" s="16">
+        <v>0</v>
+      </c>
+      <c r="G69" s="16">
+        <v>0</v>
+      </c>
+      <c r="H69" s="16">
+        <v>1.6719745222929938</v>
+      </c>
+      <c r="I69" s="16">
+        <v>6.0995184590690199</v>
+      </c>
+      <c r="J69" s="16">
+        <f t="shared" si="4"/>
+        <v>25.607504421793045</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="10">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="D70" s="10">
+        <v>2.7050000000000001</v>
+      </c>
+      <c r="E70" s="10">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <v>11.864406779661017</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0</v>
+      </c>
+      <c r="J70" s="10">
+        <f t="shared" si="4"/>
+        <v>23.154406779661016</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="16">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="D71" s="16">
+        <v>3.7789999999999999</v>
+      </c>
+      <c r="E71" s="16">
+        <v>4.08</v>
+      </c>
+      <c r="F71" s="16">
+        <v>0</v>
+      </c>
+      <c r="G71" s="16">
+        <v>11.864406779661017</v>
+      </c>
+      <c r="H71" s="16">
+        <v>0</v>
+      </c>
+      <c r="I71" s="16">
+        <v>0</v>
+      </c>
+      <c r="J71" s="16">
+        <f t="shared" si="4"/>
+        <v>21.951406779661017</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="10">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="D72" s="10">
+        <v>4.383</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0</v>
+      </c>
+      <c r="G72" s="10">
+        <v>8.4745762711864412</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0</v>
+      </c>
+      <c r="J72" s="10">
+        <f t="shared" si="4"/>
+        <v>15.263576271186441</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="16">
+        <v>1.974</v>
+      </c>
+      <c r="D73" s="16">
+        <v>1.974</v>
+      </c>
+      <c r="E73" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="F73" s="16">
+        <v>0</v>
+      </c>
+      <c r="G73" s="16">
+        <v>0</v>
+      </c>
+      <c r="H73" s="16">
+        <v>0</v>
+      </c>
+      <c r="I73" s="16">
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" si="4"/>
+        <v>11.247999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="10">
+        <v>2.36</v>
+      </c>
+      <c r="D74" s="10">
+        <v>6.7530000000000001</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0</v>
+      </c>
+      <c r="J74" s="10">
+        <f t="shared" si="4"/>
+        <v>9.1129999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="16">
+        <v>2.758</v>
+      </c>
+      <c r="D75" s="16">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="E75" s="16">
+        <v>0</v>
+      </c>
+      <c r="F75" s="16">
+        <v>0</v>
+      </c>
+      <c r="G75" s="16">
+        <v>0</v>
+      </c>
+      <c r="H75" s="16">
+        <v>2.0382165605095541</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
+      <c r="J75" s="16">
+        <f t="shared" si="4"/>
+        <v>8.3214331210191084</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="10">
+        <v>2.782</v>
+      </c>
+      <c r="D76" s="10">
+        <v>3.5110000000000001</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="10">
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+      <c r="I76" s="10">
+        <v>0</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" si="4"/>
+        <v>6.2930000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="16">
+        <v>1.492</v>
+      </c>
+      <c r="D77" s="16">
+        <v>4.702</v>
+      </c>
+      <c r="E77" s="16">
+        <v>0</v>
+      </c>
+      <c r="F77" s="16">
+        <v>0</v>
+      </c>
+      <c r="G77" s="16">
+        <v>0</v>
+      </c>
+      <c r="H77" s="16">
+        <v>0</v>
+      </c>
+      <c r="I77" s="16">
+        <v>0</v>
+      </c>
+      <c r="J77" s="16">
+        <f t="shared" si="4"/>
+        <v>6.194</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1.929</v>
+      </c>
+      <c r="D78" s="10">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10">
+        <f t="shared" si="4"/>
+        <v>4.4740000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="D79" s="16">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E79" s="16">
+        <v>0</v>
+      </c>
+      <c r="F79" s="16">
+        <v>0</v>
+      </c>
+      <c r="G79" s="16">
+        <v>0</v>
+      </c>
+      <c r="H79" s="16">
+        <v>0</v>
+      </c>
+      <c r="I79" s="16">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16">
+        <f t="shared" si="4"/>
+        <v>1.627</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="10">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+      <c r="I80" s="10">
+        <v>0</v>
+      </c>
+      <c r="J80" s="10">
+        <f t="shared" si="4"/>
+        <v>1.3620000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="16">
+        <v>0.153</v>
+      </c>
+      <c r="D81" s="16">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E81" s="16">
+        <v>0</v>
+      </c>
+      <c r="F81" s="16">
+        <v>0</v>
+      </c>
+      <c r="G81" s="16">
+        <v>0</v>
+      </c>
+      <c r="H81" s="16">
+        <v>0</v>
+      </c>
+      <c r="I81" s="16">
+        <v>0</v>
+      </c>
+      <c r="J81" s="16">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
+      <c r="F82" s="10">
+        <v>0</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+      <c r="I82" s="10">
+        <v>0</v>
+      </c>
+      <c r="J82" s="10">
+        <f t="shared" si="4"/>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="D83" s="16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E83" s="16">
+        <v>0</v>
+      </c>
+      <c r="F83" s="16">
+        <v>0</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0</v>
+      </c>
+      <c r="H83" s="16">
+        <v>0</v>
+      </c>
+      <c r="I83" s="16">
+        <v>0</v>
+      </c>
+      <c r="J83" s="16">
+        <f t="shared" si="4"/>
+        <v>0.16699999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="10">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D84" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E84" s="10">
+        <v>0</v>
+      </c>
+      <c r="F84" s="10">
+        <v>0</v>
+      </c>
+      <c r="G84" s="10">
+        <v>0</v>
+      </c>
+      <c r="H84" s="10">
+        <v>0</v>
+      </c>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10">
+        <f t="shared" si="4"/>
+        <v>0.108</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B3:J28">
     <sortCondition descending="1" ref="J3:J28"/>
   </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AA13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM9" sqref="AM9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="26" width="3.28515625" customWidth="1"/>
+    <col min="27" max="27" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y3" s="25"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA8" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y12" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA13" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/letters.xlsx
+++ b/letters.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
     <sheet name="List2" sheetId="2" r:id="rId2"/>
+    <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="85">
   <si>
     <t>A</t>
   </si>
@@ -302,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +352,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC198E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -565,11 +614,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,30 +739,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,6 +771,103 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,6 +876,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC198E0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -959,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,31 +2230,31 @@
     </row>
     <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="49" t="s">
         <v>47</v>
       </c>
       <c r="L57">
@@ -2065,15 +2263,15 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="20"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="50"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
@@ -2858,15 +3056,15 @@
     <sortCondition descending="1" ref="J3:J28"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="H57:H58"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2877,7 +3075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
@@ -2892,25 +3090,25 @@
       <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="Y3" s="25"/>
+      <c r="Y3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="19" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -2919,13 +3117,13 @@
       <c r="H4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="18" t="s">
         <v>65</v>
       </c>
       <c r="L4" s="9" t="s">
@@ -2937,25 +3135,25 @@
       <c r="N4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="19" t="s">
         <v>75</v>
       </c>
       <c r="V4" s="9" t="s">
@@ -2967,33 +3165,33 @@
       <c r="X4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="26" t="s">
+      <c r="Y4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="26" t="s">
+      <c r="Z4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AA4" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="19" t="s">
         <v>75</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -3002,13 +3200,13 @@
       <c r="H5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="18" t="s">
         <v>65</v>
       </c>
       <c r="L5" s="9" t="s">
@@ -3020,25 +3218,25 @@
       <c r="N5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="O5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="P5" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="19" t="s">
         <v>63</v>
       </c>
       <c r="V5" s="9" t="s">
@@ -3050,18 +3248,18 @@
       <c r="X5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="26" t="s">
+      <c r="Y5" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="26" t="s">
+      <c r="Z5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="26" t="s">
+      <c r="AA5" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3090,7 +3288,7 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3119,260 +3317,260 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="T8" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="U8" s="27" t="s">
+      <c r="U8" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="36" t="s">
+      <c r="V8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="36" t="s">
+      <c r="X8" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="Y8" s="34" t="s">
+      <c r="Y8" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="28" t="s">
+      <c r="Z8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="34" t="s">
+      <c r="AA8" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="30" t="s">
+      <c r="S9" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="30" t="s">
+      <c r="T9" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="U9" s="27" t="s">
+      <c r="U9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="V9" s="36" t="s">
+      <c r="V9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="W9" s="35" t="s">
+      <c r="W9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="X9" s="36" t="s">
+      <c r="X9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="Y9" s="34" t="s">
+      <c r="Y9" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" s="28" t="s">
+      <c r="Z9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="34" t="s">
+      <c r="AA9" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="R12" s="35" t="s">
+      <c r="R12" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="T12" s="30" t="s">
+      <c r="T12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="U12" s="30" t="s">
+      <c r="U12" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="V12" s="30" t="s">
+      <c r="V12" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="W12" s="30" t="s">
+      <c r="W12" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="X12" s="30" t="s">
+      <c r="X12" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Y12" s="28" t="s">
+      <c r="Y12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="26" t="s">
+      <c r="Z12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AA12" s="35" t="s">
+      <c r="AA12" s="27" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3399,7 +3597,7 @@
       <c r="J13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="20" t="s">
         <v>78</v>
       </c>
       <c r="L13" s="9" t="s">
@@ -3414,13 +3612,13 @@
       <c r="O13" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="26" t="s">
+      <c r="P13" s="18" t="s">
         <v>70</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="R13" s="35" t="s">
+      <c r="R13" s="27" t="s">
         <v>80</v>
       </c>
       <c r="S13" s="9" t="s">
@@ -3441,13 +3639,13 @@
       <c r="X13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Y13" s="28" t="s">
+      <c r="Y13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Z13" s="26" t="s">
+      <c r="Z13" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AA13" s="35" t="s">
+      <c r="AA13" s="27" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3455,4 +3653,2004 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:P92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="54"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="E7" s="16">
+        <v>15.5</v>
+      </c>
+      <c r="F7" s="16">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="G7" s="16">
+        <v>75</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" ref="H7:H32" si="0">D7+E7+F7+G7*10</f>
+        <v>792.83699999999999</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10">
+        <v>6.9660000000000002</v>
+      </c>
+      <c r="E8" s="10">
+        <v>8.23</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>25</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="0"/>
+        <v>265.19600000000003</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="16">
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="E9" s="16">
+        <v>15.94</v>
+      </c>
+      <c r="F9" s="16">
+        <v>8.64</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="0"/>
+        <v>33.635999999999996</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16">
+        <v>6.327</v>
+      </c>
+      <c r="E10" s="16">
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="F10" s="16">
+        <v>14.35</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="0"/>
+        <v>28.432000000000002</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16">
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="E11" s="16">
+        <v>6.2640000000000002</v>
+      </c>
+      <c r="F11" s="16">
+        <v>4.67</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
+        <v>18.441000000000003</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="14">
+        <v>6.7489999999999997</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="F12" s="14">
+        <v>7.86</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="0"/>
+        <v>16.974</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4.2530000000000001</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="F13" s="10">
+        <v>9.23</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>16.152999999999999</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>12.702</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="0"/>
+        <v>14.709</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10">
+        <v>5.9870000000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1.653</v>
+      </c>
+      <c r="F15" s="10">
+        <v>6.93</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="0"/>
+        <v>14.57</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16">
+        <v>6.0940000000000003</v>
+      </c>
+      <c r="E16" s="16">
+        <v>7.2320000000000002</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="0"/>
+        <v>13.326000000000001</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.7050000000000001</v>
+      </c>
+      <c r="F17" s="10">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="0"/>
+        <v>11.29</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1.974</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1.974</v>
+      </c>
+      <c r="F18" s="16">
+        <v>7.3</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="0"/>
+        <v>11.247999999999999</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="E19" s="16">
+        <v>3.7789999999999999</v>
+      </c>
+      <c r="F19" s="16">
+        <v>4.08</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="0"/>
+        <v>10.087</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.36</v>
+      </c>
+      <c r="E20" s="10">
+        <v>6.7530000000000001</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="0"/>
+        <v>9.1129999999999995</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4.383</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="0"/>
+        <v>6.7889999999999997</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2.782</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3.5110000000000001</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="0"/>
+        <v>6.2930000000000001</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1.492</v>
+      </c>
+      <c r="E23" s="16">
+        <v>4.702</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="0"/>
+        <v>6.194</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1.929</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="0"/>
+        <v>4.4740000000000002</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="16">
+        <v>2.758</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="0"/>
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1.95</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="0"/>
+        <v>3.9649999999999999</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="0"/>
+        <v>1.627</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.153</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="0"/>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="0"/>
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="10">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="53"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="49"/>
+    </row>
+    <row r="35" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="54"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="50"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="50"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="E36" s="16">
+        <v>75</v>
+      </c>
+      <c r="F36" s="16">
+        <f t="shared" ref="F36:F61" si="1">D36+E36*5</f>
+        <v>383.16699999999997</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="10">
+        <v>6.9660000000000002</v>
+      </c>
+      <c r="E37" s="10">
+        <v>25</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="shared" si="1"/>
+        <v>131.96600000000001</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="10">
+        <v>12.702</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <f t="shared" si="1"/>
+        <v>12.702</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="16">
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="16">
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
+        <f t="shared" si="1"/>
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="14">
+        <v>6.7489999999999997</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="1"/>
+        <v>6.7489999999999997</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="16">
+        <v>6.327</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <f t="shared" si="1"/>
+        <v>6.327</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="30">
+        <v>6.0940000000000003</v>
+      </c>
+      <c r="E43" s="30">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
+        <f t="shared" si="1"/>
+        <v>6.0940000000000003</v>
+      </c>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="10">
+        <v>5.9870000000000001</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="1"/>
+        <v>5.9870000000000001</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="10">
+        <v>4.2530000000000001</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="1"/>
+        <v>4.2530000000000001</v>
+      </c>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="10">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="1"/>
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="10">
+        <v>2.782</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <f t="shared" si="1"/>
+        <v>2.782</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="16">
+        <v>2.758</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16">
+        <f t="shared" si="1"/>
+        <v>2.758</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <f t="shared" si="1"/>
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="10">
+        <v>2.36</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <f t="shared" si="1"/>
+        <v>2.36</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="16">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <f t="shared" si="1"/>
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="16">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1.974</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <f t="shared" si="1"/>
+        <v>1.974</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1.929</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
+        <f t="shared" si="1"/>
+        <v>1.929</v>
+      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1.492</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16">
+        <f t="shared" si="1"/>
+        <v>1.492</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16">
+        <f t="shared" si="1"/>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16">
+        <f t="shared" si="1"/>
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="H57" s="9"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="16">
+        <v>0.153</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16">
+        <f t="shared" si="1"/>
+        <v>0.153</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="E59" s="16">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16">
+        <f t="shared" si="1"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="10">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16">
+        <f t="shared" si="1"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H61" s="9"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="16"/>
+    </row>
+    <row r="63" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="3:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="4:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="54"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="50"/>
+      <c r="J65" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="K65" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="L65" s="49"/>
+      <c r="O65" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="P65" s="53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="10">
+        <v>8.9171974522292992</v>
+      </c>
+      <c r="F66" s="10">
+        <v>6.0995184590690199</v>
+      </c>
+      <c r="G66" s="55">
+        <v>75</v>
+      </c>
+      <c r="H66" s="16">
+        <f>E66+F66+G66*10</f>
+        <v>765.01671591129832</v>
+      </c>
+      <c r="J66" s="54"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="50"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="54"/>
+    </row>
+    <row r="67" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D67" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="16">
+        <v>4.1401273885350323</v>
+      </c>
+      <c r="F67" s="16">
+        <v>8.5072231139646899</v>
+      </c>
+      <c r="G67" s="56">
+        <v>25</v>
+      </c>
+      <c r="H67" s="16">
+        <f>E67+F67+G67*10</f>
+        <v>262.64735050249971</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="10">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="L67" s="16"/>
+      <c r="O67" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="P67" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D68" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="10">
+        <v>18.041401273885352</v>
+      </c>
+      <c r="F68" s="10">
+        <v>18.726591760299623</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="16">
+        <f>E68+F68+G68*10</f>
+        <v>36.767993034184975</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K68" s="10">
+        <v>2.782</v>
+      </c>
+      <c r="L68" s="16"/>
+      <c r="O68" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="P68" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="16">
+        <v>15.796178343949045</v>
+      </c>
+      <c r="F69" s="16">
+        <v>18.726591760299623</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="16">
+        <f>E69+F69+G69*10</f>
+        <v>34.522770104248664</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="10">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="L69" s="16"/>
+      <c r="O69" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D70" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="16">
+        <v>11.95859872611465</v>
+      </c>
+      <c r="F70" s="16">
+        <v>18.726591760299623</v>
+      </c>
+      <c r="G70" s="16">
+        <v>0</v>
+      </c>
+      <c r="H70" s="16">
+        <f>E70+F70+G70*10</f>
+        <v>30.685190486414271</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="10">
+        <v>2.36</v>
+      </c>
+      <c r="L70" s="16"/>
+      <c r="O70" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="P70" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D71" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="14">
+        <v>13.407643312101911</v>
+      </c>
+      <c r="F71" s="14">
+        <v>14.606741573033707</v>
+      </c>
+      <c r="G71" s="57">
+        <v>0</v>
+      </c>
+      <c r="H71" s="16">
+        <f>E71+F71+G71*10</f>
+        <v>28.01438488513562</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" s="16">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="L71" s="16"/>
+      <c r="O71" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="P71" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D72" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="10">
+        <v>4.5222929936305736</v>
+      </c>
+      <c r="F72" s="10">
+        <v>8.5072231139646899</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="16">
+        <f>E72+F72+G72*10</f>
+        <v>13.029516107595263</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" s="16">
+        <v>1.974</v>
+      </c>
+      <c r="L72" s="16"/>
+      <c r="O72" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="12">
+        <v>8.0573248407643305</v>
+      </c>
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H73" s="16">
+        <f>E73+F73+G73*10</f>
+        <v>8.0573248407643305</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="10">
+        <v>1.929</v>
+      </c>
+      <c r="L73" s="16"/>
+      <c r="O73" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D74" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="16">
+        <v>7.9617834394904463</v>
+      </c>
+      <c r="F74" s="16">
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="16">
+        <f>E74+F74+G74*10</f>
+        <v>7.9617834394904463</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" s="16">
+        <v>1.492</v>
+      </c>
+      <c r="L74" s="16"/>
+      <c r="O74" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="P74" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D75" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="16">
+        <v>1.6719745222929938</v>
+      </c>
+      <c r="F75" s="16">
+        <v>6.0995184590690199</v>
+      </c>
+      <c r="G75" s="16">
+        <v>0</v>
+      </c>
+      <c r="H75" s="16">
+        <f>E75+F75+G75*10</f>
+        <v>7.7714929813620142</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K75" s="16">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="L75" s="16"/>
+      <c r="O75" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P75" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D76" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="16">
+        <v>3.4872611464968153</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="16">
+        <f>E76+F76+G76*10</f>
+        <v>3.4872611464968153</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="10">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="L76" s="16"/>
+      <c r="O76" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="P76" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D77" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="16">
+        <v>2.0382165605095541</v>
+      </c>
+      <c r="F77" s="16">
+        <v>0</v>
+      </c>
+      <c r="G77" s="16">
+        <v>0</v>
+      </c>
+      <c r="H77" s="16">
+        <f>E77+F77+G77*10</f>
+        <v>2.0382165605095541</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="16">
+        <v>0.153</v>
+      </c>
+      <c r="L77" s="16"/>
+      <c r="O77" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P77" s="61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0</v>
+      </c>
+      <c r="G78" s="16">
+        <v>0</v>
+      </c>
+      <c r="H78" s="16">
+        <f>E78+F78+G78*10</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="L78" s="16"/>
+      <c r="O78" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78" s="61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D79" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="16">
+        <v>0</v>
+      </c>
+      <c r="F79" s="16">
+        <v>0</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="16">
+        <f>E79+F79+G79*10</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L79" s="16"/>
+      <c r="M79" s="32"/>
+      <c r="O79" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="P79" s="61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D80" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0</v>
+      </c>
+      <c r="H80" s="16">
+        <f>E80+F80+G80*10</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="10">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L80" s="16"/>
+      <c r="M80" s="32"/>
+      <c r="O80" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D81" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="16">
+        <v>0</v>
+      </c>
+      <c r="F81" s="16">
+        <v>0</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0</v>
+      </c>
+      <c r="H81" s="16">
+        <f>E81+F81+G81*10</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="O81" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="P81" s="61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D82" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
+      <c r="F82" s="10">
+        <v>0</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0</v>
+      </c>
+      <c r="H82" s="16">
+        <f>E82+F82+G82*10</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="31"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="O82" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="P82" s="61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D83" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="10">
+        <v>0</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
+      <c r="H83" s="16">
+        <f>E83+F83+G83*10</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="31"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="O83" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P83" s="61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D84" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="16">
+        <v>0</v>
+      </c>
+      <c r="F84" s="16">
+        <v>0</v>
+      </c>
+      <c r="G84" s="16">
+        <v>0</v>
+      </c>
+      <c r="H84" s="16">
+        <f>E84+F84+G84*10</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="O84" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="P84" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D85" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
+      <c r="F85" s="10">
+        <v>0</v>
+      </c>
+      <c r="G85" s="16">
+        <v>0</v>
+      </c>
+      <c r="H85" s="16">
+        <f>E85+F85+G85*10</f>
+        <v>0</v>
+      </c>
+      <c r="O85" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85" s="43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D86" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="16">
+        <v>0</v>
+      </c>
+      <c r="F86" s="16">
+        <v>0</v>
+      </c>
+      <c r="G86" s="16">
+        <v>0</v>
+      </c>
+      <c r="H86" s="16">
+        <f>E86+F86+G86*10</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="P86" s="43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0</v>
+      </c>
+      <c r="F87" s="10">
+        <v>0</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0</v>
+      </c>
+      <c r="H87" s="16">
+        <f>E87+F87+G87*10</f>
+        <v>0</v>
+      </c>
+      <c r="O87" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="P87" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D88" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="16">
+        <v>0</v>
+      </c>
+      <c r="F88" s="16">
+        <v>0</v>
+      </c>
+      <c r="G88" s="16">
+        <v>0</v>
+      </c>
+      <c r="H88" s="16">
+        <f>E88+F88+G88*10</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="P88" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="10">
+        <v>0</v>
+      </c>
+      <c r="F89" s="10">
+        <v>0</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0</v>
+      </c>
+      <c r="H89" s="16">
+        <f>E89+F89+G89*10</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="P89" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D90" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="16">
+        <v>0</v>
+      </c>
+      <c r="F90" s="16">
+        <v>0</v>
+      </c>
+      <c r="G90" s="16">
+        <v>0</v>
+      </c>
+      <c r="H90" s="16">
+        <f>E90+F90+G90*10</f>
+        <v>0</v>
+      </c>
+      <c r="O90" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="P90" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D91" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
+      <c r="F91" s="10">
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="16">
+        <f>E91+F91+G91*10</f>
+        <v>0</v>
+      </c>
+      <c r="O91" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="P91" s="42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="H92" s="16"/>
+      <c r="O92" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D67:H91">
+    <sortCondition descending="1" ref="H66:H91"/>
+  </sortState>
+  <mergeCells count="26">
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/letters.xlsx
+++ b/letters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="91">
   <si>
     <t>A</t>
   </si>
@@ -275,7 +275,25 @@
     <t>Uhádnutý klíč</t>
   </si>
   <si>
-    <t>1.</t>
+    <t>v celém textu (skóre) [%]</t>
+  </si>
+  <si>
+    <t>vzorec 1</t>
+  </si>
+  <si>
+    <t>vzorec 2</t>
+  </si>
+  <si>
+    <t>vzorec 3</t>
+  </si>
+  <si>
+    <t>(začátky + konce)</t>
+  </si>
+  <si>
+    <t>(pouze celkové)</t>
+  </si>
+  <si>
+    <t>vzorec 4</t>
   </si>
 </sst>
 </file>
@@ -285,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +320,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,12 +361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,8 +418,80 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -685,11 +775,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -743,9 +846,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,18 +861,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,13 +880,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,10 +895,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,16 +910,25 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,25 +955,156 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,7 +1395,7 @@
   <dimension ref="B1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,31 +2467,31 @@
     </row>
     <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="51" t="s">
+      <c r="G57" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="47" t="s">
+      <c r="H57" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="I57" s="47" t="s">
+      <c r="I57" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="J57" s="49" t="s">
+      <c r="J57" s="50" t="s">
         <v>47</v>
       </c>
       <c r="L57">
@@ -2263,15 +2500,15 @@
       </c>
     </row>
     <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="54"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="50"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="51"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
@@ -2298,7 +2535,7 @@
       <c r="I59" s="16">
         <v>8.5072231139646899</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="74">
         <f t="shared" ref="J59:J84" si="4">C59+D59+E59+F59*10+G59+H59*2+I59*3</f>
         <v>826.63892411896404</v>
       </c>
@@ -2328,7 +2565,7 @@
       <c r="I60" s="10">
         <v>6.0995184590690199</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="74">
         <f t="shared" si="4"/>
         <v>301.32895028166564</v>
       </c>
@@ -2358,7 +2595,7 @@
       <c r="I61" s="16">
         <v>18.726591760299623</v>
       </c>
-      <c r="J61" s="16">
+      <c r="J61" s="66">
         <f t="shared" si="4"/>
         <v>130.68212527550105</v>
       </c>
@@ -2388,7 +2625,7 @@
       <c r="I62" s="10">
         <v>18.726591760299623</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="66">
         <f t="shared" si="4"/>
         <v>123.92073037104245</v>
       </c>
@@ -2418,7 +2655,7 @@
       <c r="I63" s="16">
         <v>18.726591760299623</v>
       </c>
-      <c r="J63" s="16">
+      <c r="J63" s="66">
         <f t="shared" si="4"/>
         <v>101.09813196879696</v>
       </c>
@@ -2448,7 +2685,7 @@
       <c r="I64" s="14">
         <v>14.606741573033707</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="70">
         <f t="shared" si="4"/>
         <v>87.609511343304945</v>
       </c>
@@ -2478,7 +2715,7 @@
       <c r="I65" s="16">
         <v>0</v>
       </c>
-      <c r="J65" s="16">
+      <c r="J65" s="71">
         <f t="shared" si="4"/>
         <v>60.830251106552936</v>
       </c>
@@ -2508,7 +2745,7 @@
       <c r="I66" s="12">
         <v>8.5072231139646899</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="73">
         <f t="shared" si="4"/>
         <v>50.719255329155217</v>
       </c>
@@ -2538,7 +2775,7 @@
       <c r="I67" s="16">
         <v>0</v>
       </c>
-      <c r="J67" s="16">
+      <c r="J67" s="71">
         <f t="shared" si="4"/>
         <v>42.839143150167338</v>
       </c>
@@ -2568,7 +2805,7 @@
       <c r="I68" s="10">
         <v>0</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68" s="71">
         <f t="shared" si="4"/>
         <v>30.684649681528661</v>
       </c>
@@ -2598,7 +2835,7 @@
       <c r="I69" s="16">
         <v>6.0995184590690199</v>
       </c>
-      <c r="J69" s="16">
+      <c r="J69" s="71">
         <f t="shared" si="4"/>
         <v>25.607504421793045</v>
       </c>
@@ -2628,7 +2865,7 @@
       <c r="I70" s="10">
         <v>0</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J70" s="71">
         <f t="shared" si="4"/>
         <v>23.154406779661016</v>
       </c>
@@ -2658,7 +2895,7 @@
       <c r="I71" s="16">
         <v>0</v>
       </c>
-      <c r="J71" s="16">
+      <c r="J71" s="71">
         <f t="shared" si="4"/>
         <v>21.951406779661017</v>
       </c>
@@ -2688,7 +2925,7 @@
       <c r="I72" s="10">
         <v>0</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J72" s="79">
         <f t="shared" si="4"/>
         <v>15.263576271186441</v>
       </c>
@@ -2718,7 +2955,7 @@
       <c r="I73" s="16">
         <v>0</v>
       </c>
-      <c r="J73" s="16">
+      <c r="J73" s="79">
         <f t="shared" si="4"/>
         <v>11.247999999999999</v>
       </c>
@@ -2748,7 +2985,7 @@
       <c r="I74" s="10">
         <v>0</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J74" s="79">
         <f t="shared" si="4"/>
         <v>9.1129999999999995</v>
       </c>
@@ -2778,7 +3015,7 @@
       <c r="I75" s="16">
         <v>0</v>
       </c>
-      <c r="J75" s="16">
+      <c r="J75" s="79">
         <f t="shared" si="4"/>
         <v>8.3214331210191084</v>
       </c>
@@ -2808,7 +3045,7 @@
       <c r="I76" s="10">
         <v>0</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J76" s="79">
         <f t="shared" si="4"/>
         <v>6.2930000000000001</v>
       </c>
@@ -2838,7 +3075,7 @@
       <c r="I77" s="16">
         <v>0</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J77" s="79">
         <f t="shared" si="4"/>
         <v>6.194</v>
       </c>
@@ -2868,7 +3105,7 @@
       <c r="I78" s="10">
         <v>0</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J78" s="79">
         <f t="shared" si="4"/>
         <v>4.4740000000000002</v>
       </c>
@@ -2898,7 +3135,7 @@
       <c r="I79" s="16">
         <v>0</v>
       </c>
-      <c r="J79" s="16">
+      <c r="J79" s="79">
         <f t="shared" si="4"/>
         <v>1.627</v>
       </c>
@@ -2928,7 +3165,7 @@
       <c r="I80" s="10">
         <v>0</v>
       </c>
-      <c r="J80" s="10">
+      <c r="J80" s="79">
         <f t="shared" si="4"/>
         <v>1.3620000000000001</v>
       </c>
@@ -2958,7 +3195,7 @@
       <c r="I81" s="16">
         <v>0</v>
       </c>
-      <c r="J81" s="16">
+      <c r="J81" s="74">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
@@ -2988,7 +3225,7 @@
       <c r="I82" s="10">
         <v>0</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J82" s="74">
         <f t="shared" si="4"/>
         <v>0.26800000000000002</v>
       </c>
@@ -3018,7 +3255,7 @@
       <c r="I83" s="16">
         <v>0</v>
       </c>
-      <c r="J83" s="16">
+      <c r="J83" s="74">
         <f t="shared" si="4"/>
         <v>0.16699999999999998</v>
       </c>
@@ -3045,8 +3282,10 @@
       <c r="H84" s="10">
         <v>0</v>
       </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10">
+      <c r="I84" s="10">
+        <v>0</v>
+      </c>
+      <c r="J84" s="74">
         <f t="shared" si="4"/>
         <v>0.108</v>
       </c>
@@ -3073,10 +3312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AA13"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:AA41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,567 +3325,2117 @@
     <col min="27" max="27" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y3" s="17"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B6" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C6" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E6" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F6" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I6" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J6" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K6" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L6" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O6" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q6" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R6" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S6" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U6" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V6" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W6" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Y6" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="Z6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AA6" s="95" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B7" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C7" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="R7" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="T7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="V9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="J10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="Y10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="101"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="101"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="G16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L16" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N16" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="X16" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA16" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="X17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA17" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="E19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S19" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="T19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="X19" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="Y19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA19" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="O20" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q20" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S20" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="T20" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="W20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="X20" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z20" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA20" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="U23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W23" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="X23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA23" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S24" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="T24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="U24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="X24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="AA24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="9" t="s">
+    </row>
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="N27" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="S27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="T27" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V27" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="X27" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y27" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z27" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AA27" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q28" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="T28" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="X28" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y28" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z28" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA28" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E30" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G30" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H30" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I30" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J30" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K30" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L30" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M30" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N30" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O30" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P30" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q30" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="R30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="22" t="s">
+      <c r="S30" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T30" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="28" t="s">
+      <c r="V30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="W8" s="27" t="s">
+      <c r="W30" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="X8" s="28" t="s">
+      <c r="X30" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="Y8" s="26" t="s">
+      <c r="Y30" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="Z30" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="26" t="s">
+      <c r="AA30" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C31" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q31" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="R31" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S31" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="W31" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="X31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z31" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA31" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E33" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O33" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T33" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="U33" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="V33" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W33" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="X33" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y33" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA33" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="R34" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="T34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="U34" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="W34" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="X34" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y34" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z34" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA34" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="Q37" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S37" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="U37" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W37" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="X37" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y37" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA37" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="G38" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K38" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="R38" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S38" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="T38" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="U38" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="V38" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="W38" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="X38" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y38" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z38" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA38" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="27" t="s">
+    </row>
+    <row r="39" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q40" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="S40" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="T40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="U40" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="V40" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="W40" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="X40" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y40" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z40" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA40" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N41" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="R41" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="S41" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="T41" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="U41" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="V41" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="W41" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="X41" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y41" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z41" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA41" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P43" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R43" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="S43" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T43" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="U43" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V43" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W43" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="X43" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y43" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z43" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA43" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q44" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="R44" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="S44" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="T44" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="U44" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="V44" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="W44" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="T9" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="V9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="W9" s="27" t="s">
+      <c r="X44" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y44" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z44" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA44" s="39" t="s">
         <v>66</v>
-      </c>
-      <c r="X9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA9" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="V12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="W12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="X12" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA12" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA13" s="27" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3659,8 +5448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3680,663 +5469,663 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="54"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="C7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="82">
         <v>8.1669999999999998</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="82">
         <v>15.5</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="82">
         <v>19.170000000000002</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="82">
         <v>75</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="64">
         <f t="shared" ref="H7:H32" si="0">D7+E7+F7+G7*10</f>
         <v>792.83699999999999</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="82">
         <v>6.9660000000000002</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="82">
         <v>8.23</v>
       </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="82">
+        <v>0</v>
+      </c>
+      <c r="G8" s="82">
         <v>25</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="64">
         <f t="shared" si="0"/>
         <v>265.19600000000003</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="82">
         <v>9.0559999999999992</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="82">
         <v>15.94</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="82">
         <v>8.64</v>
       </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="G9" s="82">
+        <v>0</v>
+      </c>
+      <c r="H9" s="67">
         <f t="shared" si="0"/>
         <v>33.635999999999996</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="68"/>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="82">
         <v>6.327</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="82">
         <v>7.7549999999999999</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="82">
         <v>14.35</v>
       </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="G10" s="82">
+        <v>0</v>
+      </c>
+      <c r="H10" s="67">
         <f t="shared" si="0"/>
         <v>28.432000000000002</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="82">
         <v>7.5069999999999997</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="82">
         <v>6.2640000000000002</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="82">
         <v>4.67</v>
       </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="G11" s="82">
+        <v>0</v>
+      </c>
+      <c r="H11" s="71">
         <f t="shared" si="0"/>
         <v>18.441000000000003</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="85">
         <v>6.7489999999999997</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="85">
         <v>2.3650000000000002</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="85">
         <v>7.86</v>
       </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="G12" s="85">
+        <v>0</v>
+      </c>
+      <c r="H12" s="71">
         <f t="shared" si="0"/>
         <v>16.974</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="82">
         <v>4.2530000000000001</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="82">
         <v>2.67</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="82">
         <v>9.23</v>
       </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
+      <c r="G13" s="82">
+        <v>0</v>
+      </c>
+      <c r="H13" s="71">
         <f t="shared" si="0"/>
         <v>16.152999999999999</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="71"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="87">
         <v>12.702</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="87">
         <v>2.0070000000000001</v>
       </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
+      <c r="F14" s="87">
+        <v>0</v>
+      </c>
+      <c r="G14" s="87">
+        <v>0</v>
+      </c>
+      <c r="H14" s="71">
         <f t="shared" si="0"/>
         <v>14.709</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="82">
         <v>5.9870000000000001</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="82">
         <v>1.653</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="82">
         <v>6.93</v>
       </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="G15" s="82">
+        <v>0</v>
+      </c>
+      <c r="H15" s="71">
         <f t="shared" si="0"/>
         <v>14.57</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="82">
         <v>6.0940000000000003</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="82">
         <v>7.2320000000000002</v>
       </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
+      <c r="F16" s="82">
+        <v>0</v>
+      </c>
+      <c r="G16" s="82">
+        <v>0</v>
+      </c>
+      <c r="H16" s="71">
         <f t="shared" si="0"/>
         <v>13.326000000000001</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="82">
         <v>4.0250000000000004</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="82">
         <v>2.7050000000000001</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="82">
         <v>4.5599999999999996</v>
       </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="G17" s="82">
+        <v>0</v>
+      </c>
+      <c r="H17" s="76">
         <f t="shared" si="0"/>
         <v>11.29</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="82">
         <v>1.974</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="82">
         <v>1.974</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="82">
         <v>7.3</v>
       </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16">
+      <c r="G18" s="82">
+        <v>0</v>
+      </c>
+      <c r="H18" s="76">
         <f t="shared" si="0"/>
         <v>11.247999999999999</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="82">
         <v>2.2280000000000002</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="82">
         <v>3.7789999999999999</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="82">
         <v>4.08</v>
       </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="G19" s="82">
+        <v>0</v>
+      </c>
+      <c r="H19" s="76">
         <f t="shared" si="0"/>
         <v>10.087</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="82">
         <v>2.36</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="82">
         <v>6.7530000000000001</v>
       </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
+      <c r="F20" s="82">
+        <v>0</v>
+      </c>
+      <c r="G20" s="82">
+        <v>0</v>
+      </c>
+      <c r="H20" s="76">
         <f t="shared" si="0"/>
         <v>9.1129999999999995</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="82">
         <v>2.4060000000000001</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="82">
         <v>4.383</v>
       </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16">
+      <c r="F21" s="82">
+        <v>0</v>
+      </c>
+      <c r="G21" s="82">
+        <v>0</v>
+      </c>
+      <c r="H21" s="80">
         <f t="shared" si="0"/>
         <v>6.7889999999999997</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="77"/>
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="82">
         <v>2.782</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="82">
         <v>3.5110000000000001</v>
       </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
+      <c r="F22" s="82">
+        <v>0</v>
+      </c>
+      <c r="G22" s="82">
+        <v>0</v>
+      </c>
+      <c r="H22" s="80">
         <f t="shared" si="0"/>
         <v>6.2930000000000001</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="77"/>
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="82">
         <v>1.492</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="82">
         <v>4.702</v>
       </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
+      <c r="F23" s="82">
+        <v>0</v>
+      </c>
+      <c r="G23" s="82">
+        <v>0</v>
+      </c>
+      <c r="H23" s="80">
         <f t="shared" si="0"/>
         <v>6.194</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="82">
         <v>1.929</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="82">
         <v>2.5449999999999999</v>
       </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
+      <c r="F24" s="82">
+        <v>0</v>
+      </c>
+      <c r="G24" s="82">
+        <v>0</v>
+      </c>
+      <c r="H24" s="81">
         <f t="shared" si="0"/>
         <v>4.4740000000000002</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="82">
         <v>2.758</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="82">
         <v>1.4870000000000001</v>
       </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
+      <c r="F25" s="82">
+        <v>0</v>
+      </c>
+      <c r="G25" s="82">
+        <v>0</v>
+      </c>
+      <c r="H25" s="81">
         <f t="shared" si="0"/>
         <v>4.2450000000000001</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="82">
         <v>2.0150000000000001</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="82">
         <v>1.95</v>
       </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
+      <c r="F26" s="82">
+        <v>0</v>
+      </c>
+      <c r="G26" s="82">
+        <v>0</v>
+      </c>
+      <c r="H26" s="81">
         <f t="shared" si="0"/>
         <v>3.9649999999999999</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="82">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="82">
         <v>0.64900000000000002</v>
       </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
+      <c r="F27" s="82">
+        <v>0</v>
+      </c>
+      <c r="G27" s="82">
+        <v>0</v>
+      </c>
+      <c r="H27" s="74">
         <f t="shared" si="0"/>
         <v>1.627</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="69"/>
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="82">
         <v>0.77200000000000002</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="82">
         <v>0.59</v>
       </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
+      <c r="F28" s="82">
+        <v>0</v>
+      </c>
+      <c r="G28" s="82">
+        <v>0</v>
+      </c>
+      <c r="H28" s="74">
         <f t="shared" si="0"/>
         <v>1.3620000000000001</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="82">
         <v>0.153</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="82">
         <v>0.59699999999999998</v>
       </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
+      <c r="F29" s="82">
+        <v>0</v>
+      </c>
+      <c r="G29" s="82">
+        <v>0</v>
+      </c>
+      <c r="H29" s="79">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="82">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="82">
         <v>0.17299999999999999</v>
       </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
+      <c r="F30" s="82">
+        <v>0</v>
+      </c>
+      <c r="G30" s="82">
+        <v>0</v>
+      </c>
+      <c r="H30" s="79">
         <f t="shared" si="0"/>
         <v>0.26800000000000002</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" s="74"/>
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="82">
         <v>0.15</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="82">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
+      <c r="F31" s="82">
+        <v>0</v>
+      </c>
+      <c r="G31" s="82">
+        <v>0</v>
+      </c>
+      <c r="H31" s="79">
         <f t="shared" si="0"/>
         <v>0.16699999999999998</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="16"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="82">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="82">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16">
+      <c r="F32" s="82">
+        <v>0</v>
+      </c>
+      <c r="G32" s="82">
+        <v>0</v>
+      </c>
+      <c r="H32" s="79">
         <f t="shared" si="0"/>
         <v>0.108</v>
       </c>
-      <c r="I32" s="10"/>
+      <c r="I32" s="74"/>
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="49"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="50"/>
     </row>
     <row r="35" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="54"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="50"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="50"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="51"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="51"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
@@ -4348,10 +6137,11 @@
       <c r="E36" s="16">
         <v>75</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="64">
         <f t="shared" ref="F36:F61" si="1">D36+E36*5</f>
         <v>383.16699999999997</v>
       </c>
+      <c r="G36" s="63"/>
       <c r="H36" s="15"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -4367,10 +6157,11 @@
       <c r="E37" s="10">
         <v>25</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="64">
         <f t="shared" si="1"/>
         <v>131.96600000000001</v>
       </c>
+      <c r="G37" s="63"/>
       <c r="H37" s="9"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -4386,10 +6177,11 @@
       <c r="E38" s="10">
         <v>0</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="75">
         <f t="shared" si="1"/>
         <v>12.702</v>
       </c>
+      <c r="G38" s="62"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -4405,10 +6197,11 @@
       <c r="E39" s="16">
         <v>0</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="75">
         <f t="shared" si="1"/>
         <v>9.0559999999999992</v>
       </c>
+      <c r="G39" s="62"/>
       <c r="H39" s="15"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
@@ -4424,10 +6217,11 @@
       <c r="E40" s="16">
         <v>0</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="75">
         <f t="shared" si="1"/>
         <v>7.5069999999999997</v>
       </c>
+      <c r="G40" s="62"/>
       <c r="H40" s="15"/>
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
@@ -4443,10 +6237,11 @@
       <c r="E41" s="14">
         <v>0</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="83">
         <f t="shared" si="1"/>
         <v>6.7489999999999997</v>
       </c>
+      <c r="G41" s="61"/>
       <c r="H41" s="13"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -4462,32 +6257,34 @@
       <c r="E42" s="16">
         <v>0</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="83">
         <f t="shared" si="1"/>
         <v>6.327</v>
       </c>
+      <c r="G42" s="61"/>
       <c r="H42" s="15"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="27">
         <v>6.0940000000000003</v>
       </c>
-      <c r="E43" s="30">
-        <v>0</v>
-      </c>
-      <c r="F43" s="16">
+      <c r="E43" s="27">
+        <v>0</v>
+      </c>
+      <c r="F43" s="83">
         <f t="shared" si="1"/>
         <v>6.0940000000000003</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
       <c r="K43" s="16"/>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
@@ -4500,10 +6297,11 @@
       <c r="E44" s="10">
         <v>0</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="83">
         <f t="shared" si="1"/>
         <v>5.9870000000000001</v>
       </c>
+      <c r="G44" s="61"/>
       <c r="H44" s="9"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -4519,10 +6317,11 @@
       <c r="E45" s="10">
         <v>0</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="65">
         <f t="shared" si="1"/>
         <v>4.2530000000000001</v>
       </c>
+      <c r="G45" s="60"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -4538,10 +6337,11 @@
       <c r="E46" s="10">
         <v>0</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="65">
         <f t="shared" si="1"/>
         <v>4.0250000000000004</v>
       </c>
+      <c r="G46" s="60"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -4557,10 +6357,11 @@
       <c r="E47" s="10">
         <v>0</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="71">
         <f t="shared" si="1"/>
         <v>2.782</v>
       </c>
+      <c r="G47" s="59"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -4576,10 +6377,11 @@
       <c r="E48" s="16">
         <v>0</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="71">
         <f t="shared" si="1"/>
         <v>2.758</v>
       </c>
+      <c r="G48" s="59"/>
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
@@ -4595,10 +6397,11 @@
       <c r="E49" s="10">
         <v>0</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="68">
         <f t="shared" si="1"/>
         <v>2.4060000000000001</v>
       </c>
+      <c r="G49" s="58"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -4614,10 +6417,11 @@
       <c r="E50" s="10">
         <v>0</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="68">
         <f t="shared" si="1"/>
         <v>2.36</v>
       </c>
+      <c r="G50" s="58"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -4633,10 +6437,11 @@
       <c r="E51" s="16">
         <v>0</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="68">
         <f t="shared" si="1"/>
         <v>2.2280000000000002</v>
       </c>
+      <c r="G51" s="58"/>
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
@@ -4652,10 +6457,11 @@
       <c r="E52" s="16">
         <v>0</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="68">
         <f t="shared" si="1"/>
         <v>2.0150000000000001</v>
       </c>
+      <c r="G52" s="58"/>
       <c r="H52" s="15"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
@@ -4671,10 +6477,11 @@
       <c r="E53" s="16">
         <v>0</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="68">
         <f t="shared" si="1"/>
         <v>1.974</v>
       </c>
+      <c r="G53" s="58"/>
       <c r="H53" s="15"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
@@ -4690,10 +6497,11 @@
       <c r="E54" s="10">
         <v>0</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="68">
         <f t="shared" si="1"/>
         <v>1.929</v>
       </c>
+      <c r="G54" s="58"/>
       <c r="H54" s="9"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -4709,10 +6517,11 @@
       <c r="E55" s="16">
         <v>0</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="68">
         <f t="shared" si="1"/>
         <v>1.492</v>
       </c>
+      <c r="G55" s="58"/>
       <c r="H55" s="15"/>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
@@ -4728,10 +6537,11 @@
       <c r="E56" s="16">
         <v>0</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="79">
         <f t="shared" si="1"/>
         <v>0.97799999999999998</v>
       </c>
+      <c r="G56" s="57"/>
       <c r="H56" s="15"/>
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
@@ -4747,10 +6557,11 @@
       <c r="E57" s="10">
         <v>0</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="79">
         <f t="shared" si="1"/>
         <v>0.77200000000000002</v>
       </c>
+      <c r="G57" s="57"/>
       <c r="H57" s="9"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -4766,10 +6577,11 @@
       <c r="E58" s="16">
         <v>0</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="74">
         <f t="shared" si="1"/>
         <v>0.153</v>
       </c>
+      <c r="G58" s="56"/>
       <c r="H58" s="15"/>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
@@ -4785,10 +6597,11 @@
       <c r="E59" s="16">
         <v>0</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="74">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
+      <c r="G59" s="56"/>
       <c r="H59" s="15"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
@@ -4804,10 +6617,11 @@
       <c r="E60" s="10">
         <v>0</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="74">
         <f t="shared" si="1"/>
         <v>9.5000000000000001E-2</v>
       </c>
+      <c r="G60" s="56"/>
       <c r="H60" s="9"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -4823,10 +6637,11 @@
       <c r="E61" s="10">
         <v>0</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="74">
         <f t="shared" si="1"/>
         <v>7.3999999999999996E-2</v>
       </c>
+      <c r="G61" s="56"/>
       <c r="H61" s="9"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -4834,90 +6649,90 @@
     </row>
     <row r="63" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="3:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="F64" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G64" s="51" t="s">
+      <c r="G64" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H64" s="49" t="s">
+      <c r="H64" s="50" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" spans="4:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="54"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="50"/>
-      <c r="J65" s="53" t="s">
+      <c r="D65" s="55"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="51"/>
+      <c r="J65" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K65" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="L65" s="49"/>
-      <c r="O65" s="53" t="s">
+      <c r="K65" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="L65" s="50"/>
+      <c r="O65" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="P65" s="53" t="s">
+      <c r="P65" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="66" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="82">
         <v>8.9171974522292992</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="82">
         <v>6.0995184590690199</v>
       </c>
-      <c r="G66" s="55">
+      <c r="G66" s="29">
         <v>75</v>
       </c>
-      <c r="H66" s="16">
-        <f>E66+F66+G66*10</f>
+      <c r="H66" s="82">
+        <f t="shared" ref="H66:H91" si="2">E66+F66+G66*10</f>
         <v>765.01671591129832</v>
       </c>
-      <c r="J66" s="54"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="50"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="51"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
     </row>
     <row r="67" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D67" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="16">
+      <c r="D67" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="82">
         <v>4.1401273885350323</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="82">
         <v>8.5072231139646899</v>
       </c>
-      <c r="G67" s="56">
+      <c r="G67" s="82">
         <v>25</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H67" s="82">
         <f>E67+F67+G67*10</f>
         <v>262.64735050249971</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K67" s="82">
         <v>4.0250000000000004</v>
       </c>
       <c r="L67" s="16"/>
-      <c r="O67" s="44" t="s">
+      <c r="O67" s="41" t="s">
         <v>5</v>
       </c>
       <c r="P67" s="18" t="s">
@@ -4925,30 +6740,30 @@
       </c>
     </row>
     <row r="68" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="82">
         <v>18.041401273885352</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="82">
         <v>18.726591760299623</v>
       </c>
-      <c r="G68" s="10">
-        <v>0</v>
-      </c>
-      <c r="H68" s="16">
+      <c r="G68" s="82">
+        <v>0</v>
+      </c>
+      <c r="H68" s="82">
         <f>E68+F68+G68*10</f>
         <v>36.767993034184975</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J68" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68" s="82">
         <v>2.782</v>
       </c>
       <c r="L68" s="16"/>
-      <c r="O68" s="45" t="s">
+      <c r="O68" s="42" t="s">
         <v>8</v>
       </c>
       <c r="P68" s="18" t="s">
@@ -4956,665 +6771,665 @@
       </c>
     </row>
     <row r="69" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="82">
         <v>15.796178343949045</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="82">
         <v>18.726591760299623</v>
       </c>
-      <c r="G69" s="10">
-        <v>0</v>
-      </c>
-      <c r="H69" s="16">
-        <f>E69+F69+G69*10</f>
+      <c r="G69" s="82">
+        <v>0</v>
+      </c>
+      <c r="H69" s="82">
+        <f t="shared" si="2"/>
         <v>34.522770104248664</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J69" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K69" s="82">
         <v>2.4060000000000001</v>
       </c>
       <c r="L69" s="16"/>
-      <c r="O69" s="45" t="s">
+      <c r="O69" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="58" t="s">
+      <c r="P69" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="82">
         <v>11.95859872611465</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="82">
         <v>18.726591760299623</v>
       </c>
-      <c r="G70" s="16">
-        <v>0</v>
-      </c>
-      <c r="H70" s="16">
-        <f>E70+F70+G70*10</f>
+      <c r="G70" s="82">
+        <v>0</v>
+      </c>
+      <c r="H70" s="82">
+        <f t="shared" si="2"/>
         <v>30.685190486414271</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J70" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="82">
         <v>2.36</v>
       </c>
       <c r="L70" s="16"/>
-      <c r="O70" s="45" t="s">
+      <c r="O70" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="P70" s="58" t="s">
+      <c r="P70" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="85">
         <v>13.407643312101911</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="85">
         <v>14.606741573033707</v>
       </c>
-      <c r="G71" s="57">
-        <v>0</v>
-      </c>
-      <c r="H71" s="16">
-        <f>E71+F71+G71*10</f>
+      <c r="G71" s="85">
+        <v>0</v>
+      </c>
+      <c r="H71" s="82">
+        <f t="shared" si="2"/>
         <v>28.01438488513562</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="82">
         <v>2.2280000000000002</v>
       </c>
       <c r="L71" s="16"/>
-      <c r="O71" s="35" t="s">
+      <c r="O71" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P71" s="58" t="s">
+      <c r="P71" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="82">
         <v>4.5222929936305736</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="82">
         <v>8.5072231139646899</v>
       </c>
-      <c r="G72" s="10">
-        <v>0</v>
-      </c>
-      <c r="H72" s="16">
-        <f>E72+F72+G72*10</f>
+      <c r="G72" s="82">
+        <v>0</v>
+      </c>
+      <c r="H72" s="82">
+        <f t="shared" si="2"/>
         <v>13.029516107595263</v>
       </c>
-      <c r="J72" s="15" t="s">
+      <c r="J72" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="82">
         <v>1.974</v>
       </c>
       <c r="L72" s="16"/>
-      <c r="O72" s="36" t="s">
+      <c r="O72" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="59" t="s">
+      <c r="P72" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="87">
         <v>8.0573248407643305</v>
       </c>
-      <c r="F73" s="12">
-        <v>0</v>
-      </c>
-      <c r="G73" s="12">
-        <v>0</v>
-      </c>
-      <c r="H73" s="16">
-        <f>E73+F73+G73*10</f>
+      <c r="F73" s="87">
+        <v>0</v>
+      </c>
+      <c r="G73" s="87">
+        <v>0</v>
+      </c>
+      <c r="H73" s="82">
+        <f t="shared" si="2"/>
         <v>8.0573248407643305</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K73" s="82">
         <v>1.929</v>
       </c>
       <c r="L73" s="16"/>
-      <c r="O73" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="P73" s="26" t="s">
+      <c r="O73" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="82">
         <v>7.9617834394904463</v>
       </c>
-      <c r="F74" s="16">
-        <v>0</v>
-      </c>
-      <c r="G74" s="10">
-        <v>0</v>
-      </c>
-      <c r="H74" s="16">
-        <f>E74+F74+G74*10</f>
+      <c r="F74" s="82">
+        <v>0</v>
+      </c>
+      <c r="G74" s="82">
+        <v>0</v>
+      </c>
+      <c r="H74" s="82">
+        <f t="shared" si="2"/>
         <v>7.9617834394904463</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="J74" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="82">
         <v>1.492</v>
       </c>
       <c r="L74" s="16"/>
-      <c r="O74" s="37" t="s">
+      <c r="O74" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P74" s="60" t="s">
+      <c r="P74" s="46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="82">
         <v>1.6719745222929938</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="82">
         <v>6.0995184590690199</v>
       </c>
-      <c r="G75" s="16">
-        <v>0</v>
-      </c>
-      <c r="H75" s="16">
-        <f>E75+F75+G75*10</f>
+      <c r="G75" s="82">
+        <v>0</v>
+      </c>
+      <c r="H75" s="82">
+        <f t="shared" si="2"/>
         <v>7.7714929813620142</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="J75" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="82">
         <v>0.97799999999999998</v>
       </c>
       <c r="L75" s="16"/>
-      <c r="O75" s="38" t="s">
+      <c r="O75" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="P75" s="26" t="s">
+      <c r="P75" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="82">
         <v>3.4872611464968153</v>
       </c>
-      <c r="F76" s="16">
-        <v>0</v>
-      </c>
-      <c r="G76" s="10">
-        <v>0</v>
-      </c>
-      <c r="H76" s="16">
-        <f>E76+F76+G76*10</f>
+      <c r="F76" s="82">
+        <v>0</v>
+      </c>
+      <c r="G76" s="82">
+        <v>0</v>
+      </c>
+      <c r="H76" s="82">
+        <f t="shared" si="2"/>
         <v>3.4872611464968153</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K76" s="82">
         <v>0.77200000000000002</v>
       </c>
       <c r="L76" s="16"/>
-      <c r="O76" s="38" t="s">
+      <c r="O76" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P76" s="26" t="s">
+      <c r="P76" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="82">
         <v>2.0382165605095541</v>
       </c>
-      <c r="F77" s="16">
-        <v>0</v>
-      </c>
-      <c r="G77" s="16">
-        <v>0</v>
-      </c>
-      <c r="H77" s="16">
-        <f>E77+F77+G77*10</f>
+      <c r="F77" s="82">
+        <v>0</v>
+      </c>
+      <c r="G77" s="82">
+        <v>0</v>
+      </c>
+      <c r="H77" s="82">
+        <f t="shared" si="2"/>
         <v>2.0382165605095541</v>
       </c>
-      <c r="J77" s="15" t="s">
+      <c r="J77" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="82">
         <v>0.153</v>
       </c>
       <c r="L77" s="16"/>
-      <c r="O77" s="34" t="s">
+      <c r="O77" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="P77" s="61" t="s">
+      <c r="P77" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="10">
-        <v>0</v>
-      </c>
-      <c r="F78" s="10">
-        <v>0</v>
-      </c>
-      <c r="G78" s="16">
-        <v>0</v>
-      </c>
-      <c r="H78" s="16">
-        <f>E78+F78+G78*10</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="15" t="s">
+      <c r="E78" s="82">
+        <v>0</v>
+      </c>
+      <c r="F78" s="82">
+        <v>0</v>
+      </c>
+      <c r="G78" s="82">
+        <v>0</v>
+      </c>
+      <c r="H78" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="82">
         <v>0.15</v>
       </c>
       <c r="L78" s="16"/>
-      <c r="O78" s="39" t="s">
+      <c r="O78" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="P78" s="61" t="s">
+      <c r="P78" s="47" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="79" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="16">
-        <v>0</v>
-      </c>
-      <c r="F79" s="16">
-        <v>0</v>
-      </c>
-      <c r="G79" s="10">
-        <v>0</v>
-      </c>
-      <c r="H79" s="16">
-        <f>E79+F79+G79*10</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="9" t="s">
+      <c r="E79" s="82">
+        <v>0</v>
+      </c>
+      <c r="F79" s="82">
+        <v>0</v>
+      </c>
+      <c r="G79" s="82">
+        <v>0</v>
+      </c>
+      <c r="H79" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K79" s="82">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="L79" s="16"/>
-      <c r="M79" s="32"/>
-      <c r="O79" s="46" t="s">
+      <c r="M79" s="29"/>
+      <c r="O79" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="P79" s="61" t="s">
+      <c r="P79" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="10">
-        <v>0</v>
-      </c>
-      <c r="F80" s="10">
-        <v>0</v>
-      </c>
-      <c r="G80" s="10">
-        <v>0</v>
-      </c>
-      <c r="H80" s="16">
-        <f>E80+F80+G80*10</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="9" t="s">
+      <c r="E80" s="82">
+        <v>0</v>
+      </c>
+      <c r="F80" s="82">
+        <v>0</v>
+      </c>
+      <c r="G80" s="82">
+        <v>0</v>
+      </c>
+      <c r="H80" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K80" s="82">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="L80" s="16"/>
-      <c r="M80" s="32"/>
-      <c r="O80" s="41" t="s">
+      <c r="M80" s="29"/>
+      <c r="O80" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="P80" s="61" t="s">
+      <c r="P80" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="16">
-        <v>0</v>
-      </c>
-      <c r="F81" s="16">
-        <v>0</v>
-      </c>
-      <c r="G81" s="10">
-        <v>0</v>
-      </c>
-      <c r="H81" s="16">
-        <f>E81+F81+G81*10</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="O81" s="41" t="s">
+      <c r="E81" s="82">
+        <v>0</v>
+      </c>
+      <c r="F81" s="82">
+        <v>0</v>
+      </c>
+      <c r="G81" s="82">
+        <v>0</v>
+      </c>
+      <c r="H81" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="O81" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="P81" s="61" t="s">
+      <c r="P81" s="47" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="82" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="10">
-        <v>0</v>
-      </c>
-      <c r="F82" s="10">
-        <v>0</v>
-      </c>
-      <c r="G82" s="16">
-        <v>0</v>
-      </c>
-      <c r="H82" s="16">
-        <f>E82+F82+G82*10</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="31"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="O82" s="41" t="s">
+      <c r="E82" s="82">
+        <v>0</v>
+      </c>
+      <c r="F82" s="82">
+        <v>0</v>
+      </c>
+      <c r="G82" s="82">
+        <v>0</v>
+      </c>
+      <c r="H82" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="28"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="O82" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P82" s="61" t="s">
+      <c r="P82" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="83" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="10">
-        <v>0</v>
-      </c>
-      <c r="F83" s="10">
-        <v>0</v>
-      </c>
-      <c r="G83" s="10">
-        <v>0</v>
-      </c>
-      <c r="H83" s="16">
-        <f>E83+F83+G83*10</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="31"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
-      <c r="O83" s="41" t="s">
+      <c r="E83" s="82">
+        <v>0</v>
+      </c>
+      <c r="F83" s="82">
+        <v>0</v>
+      </c>
+      <c r="G83" s="82">
+        <v>0</v>
+      </c>
+      <c r="H83" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="28"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="O83" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="P83" s="61" t="s">
+      <c r="P83" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E84" s="16">
-        <v>0</v>
-      </c>
-      <c r="F84" s="16">
-        <v>0</v>
-      </c>
-      <c r="G84" s="16">
-        <v>0</v>
-      </c>
-      <c r="H84" s="16">
-        <f>E84+F84+G84*10</f>
+      <c r="E84" s="82">
+        <v>0</v>
+      </c>
+      <c r="F84" s="82">
+        <v>0</v>
+      </c>
+      <c r="G84" s="82">
+        <v>0</v>
+      </c>
+      <c r="H84" s="82">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
-      <c r="O84" s="43" t="s">
+      <c r="O84" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P84" s="43" t="s">
+      <c r="P84" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="85" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="10">
-        <v>0</v>
-      </c>
-      <c r="F85" s="10">
-        <v>0</v>
-      </c>
-      <c r="G85" s="16">
-        <v>0</v>
-      </c>
-      <c r="H85" s="16">
-        <f>E85+F85+G85*10</f>
-        <v>0</v>
-      </c>
-      <c r="O85" s="43" t="s">
+      <c r="E85" s="82">
+        <v>0</v>
+      </c>
+      <c r="F85" s="82">
+        <v>0</v>
+      </c>
+      <c r="G85" s="82">
+        <v>0</v>
+      </c>
+      <c r="H85" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="P85" s="43" t="s">
+      <c r="P85" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="16">
-        <v>0</v>
-      </c>
-      <c r="F86" s="16">
-        <v>0</v>
-      </c>
-      <c r="G86" s="16">
-        <v>0</v>
-      </c>
-      <c r="H86" s="16">
-        <f>E86+F86+G86*10</f>
-        <v>0</v>
-      </c>
-      <c r="O86" s="43" t="s">
+      <c r="E86" s="82">
+        <v>0</v>
+      </c>
+      <c r="F86" s="82">
+        <v>0</v>
+      </c>
+      <c r="G86" s="82">
+        <v>0</v>
+      </c>
+      <c r="H86" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="P86" s="43" t="s">
+      <c r="P86" s="40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="10">
-        <v>0</v>
-      </c>
-      <c r="F87" s="10">
-        <v>0</v>
-      </c>
-      <c r="G87" s="10">
-        <v>0</v>
-      </c>
-      <c r="H87" s="16">
-        <f>E87+F87+G87*10</f>
-        <v>0</v>
-      </c>
-      <c r="O87" s="40" t="s">
+      <c r="E87" s="82">
+        <v>0</v>
+      </c>
+      <c r="F87" s="82">
+        <v>0</v>
+      </c>
+      <c r="G87" s="82">
+        <v>0</v>
+      </c>
+      <c r="H87" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P87" s="28" t="s">
+      <c r="P87" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16">
-        <v>0</v>
-      </c>
-      <c r="F88" s="16">
-        <v>0</v>
-      </c>
-      <c r="G88" s="16">
-        <v>0</v>
-      </c>
-      <c r="H88" s="16">
-        <f>E88+F88+G88*10</f>
-        <v>0</v>
-      </c>
-      <c r="O88" s="40" t="s">
+      <c r="E88" s="82">
+        <v>0</v>
+      </c>
+      <c r="F88" s="82">
+        <v>0</v>
+      </c>
+      <c r="G88" s="82">
+        <v>0</v>
+      </c>
+      <c r="H88" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="P88" s="28" t="s">
+      <c r="P88" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="10">
-        <v>0</v>
-      </c>
-      <c r="F89" s="10">
-        <v>0</v>
-      </c>
-      <c r="G89" s="10">
-        <v>0</v>
-      </c>
-      <c r="H89" s="16">
-        <f>E89+F89+G89*10</f>
-        <v>0</v>
-      </c>
-      <c r="O89" s="42" t="s">
+      <c r="E89" s="82">
+        <v>0</v>
+      </c>
+      <c r="F89" s="82">
+        <v>0</v>
+      </c>
+      <c r="G89" s="82">
+        <v>0</v>
+      </c>
+      <c r="H89" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P89" s="42" t="s">
+      <c r="P89" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E90" s="16">
-        <v>0</v>
-      </c>
-      <c r="F90" s="16">
-        <v>0</v>
-      </c>
-      <c r="G90" s="16">
-        <v>0</v>
-      </c>
-      <c r="H90" s="16">
-        <f>E90+F90+G90*10</f>
-        <v>0</v>
-      </c>
-      <c r="O90" s="42" t="s">
+      <c r="E90" s="82">
+        <v>0</v>
+      </c>
+      <c r="F90" s="82">
+        <v>0</v>
+      </c>
+      <c r="G90" s="82">
+        <v>0</v>
+      </c>
+      <c r="H90" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P90" s="42" t="s">
+      <c r="P90" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="91" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E91" s="10">
-        <v>0</v>
-      </c>
-      <c r="F91" s="10">
-        <v>0</v>
-      </c>
-      <c r="G91" s="10">
-        <v>0</v>
-      </c>
-      <c r="H91" s="16">
-        <f>E91+F91+G91*10</f>
-        <v>0</v>
-      </c>
-      <c r="O91" s="42" t="s">
+      <c r="E91" s="82">
+        <v>0</v>
+      </c>
+      <c r="F91" s="82">
+        <v>0</v>
+      </c>
+      <c r="G91" s="82">
+        <v>0</v>
+      </c>
+      <c r="H91" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="P91" s="42" t="s">
+      <c r="P91" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="92" spans="4:16" x14ac:dyDescent="0.25">
       <c r="H92" s="16"/>
-      <c r="O92" s="42" t="s">
+      <c r="O92" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="P92" s="42" t="s">
+      <c r="P92" s="39" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5623,6 +7438,16 @@
     <sortCondition descending="1" ref="H66:H91"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
     <mergeCell ref="P65:P66"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
@@ -5639,16 +7464,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
